--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandra.veizu\Documents\Reframework_update_UiPath_Services\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saura\Documents\UiPath\UiPathReFrameworkOrchestratorFeatures\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E43429-94C1-4452-899F-B3EDE26AAAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
+    <sheet name="Process" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -90,19 +91,7 @@
     <t>Framework</t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OrchestratorQueueName</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -123,6 +112,33 @@
   <si>
     <t>OrchestratorAssetFolder</t>
   </si>
+  <si>
+    <t>OrcehestratorFeaturesQueue</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueName</t>
+  </si>
+  <si>
+    <t>Input_Excel</t>
+  </si>
+  <si>
+    <t>Bulk_Input_Excel</t>
+  </si>
+  <si>
+    <t>Data\Input\BulkInputExcel.xlsx</t>
+  </si>
+  <si>
+    <t>Data\Input\InputExcel.xlsx</t>
+  </si>
+  <si>
+    <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
+  </si>
+  <si>
+    <t>OrchestratorAsset</t>
+  </si>
+  <si>
+    <t>DemoAsset</t>
+  </si>
 </sst>
 </file>
 
@@ -139,6 +155,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -499,16 +516,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -547,17 +564,17 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="30">
+    <row r="4" spans="1:26" ht="28.8">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -565,7 +582,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1572,14 +1589,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1616,7 +1635,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1624,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1648,7 +1667,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -1670,7 +1689,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1681,7 +1700,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1692,7 +1711,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2683,15 +2702,15 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2702,7 +2721,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -2730,7 +2749,14 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3733,4 +3759,75 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5784E2A4-978D-4928-BE4D-9CAA37897650}">
+  <dimension ref="A1:Z3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>